--- a/java_workspace/Aufgabe/src/excel_files/KestNeu.xlsx
+++ b/java_workspace/Aufgabe/src/excel_files/KestNeu.xlsx
@@ -165,11 +165,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="&quot;€&quot;\ #,##0.00"/>
-    <numFmt numFmtId="173" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="174" formatCode="0.000;[Red]0.000"/>
-    <numFmt numFmtId="175" formatCode="0.0000;[Red]0.0000"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="166" formatCode="0.000;[Red]0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000;[Red]0.0000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -285,53 +285,65 @@
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000;[Red]0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000;[Red]0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000;[Red]0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000;[Red]0.000"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -348,43 +360,31 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="174" formatCode="0.000;[Red]0.000"/>
+      <numFmt numFmtId="166" formatCode="0.000;[Red]0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="174" formatCode="0.000;[Red]0.000"/>
+      <numFmt numFmtId="166" formatCode="0.000;[Red]0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="174" formatCode="0.000;[Red]0.000"/>
+      <numFmt numFmtId="166" formatCode="0.000;[Red]0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="174" formatCode="0.000;[Red]0.000"/>
+      <numFmt numFmtId="166" formatCode="0.000;[Red]0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="174" formatCode="0.000;[Red]0.000"/>
+      <numFmt numFmtId="166" formatCode="0.000;[Red]0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="174" formatCode="0.000;[Red]0.000"/>
+      <numFmt numFmtId="166" formatCode="0.000;[Red]0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="174" formatCode="0.000;[Red]0.000"/>
+      <numFmt numFmtId="166" formatCode="0.000;[Red]0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="174" formatCode="0.000;[Red]0.000"/>
+      <numFmt numFmtId="166" formatCode="0.000;[Red]0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="174" formatCode="0.000;[Red]0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="174" formatCode="0.000;[Red]0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="174" formatCode="0.000;[Red]0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="174" formatCode="0.000;[Red]0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="174" formatCode="0.000;[Red]0.000"/>
+      <numFmt numFmtId="166" formatCode="0.000;[Red]0.000"/>
     </dxf>
     <dxf>
       <font>
@@ -434,13 +434,13 @@
     <tableColumn id="10" name="Spalte1" dataDxfId="7" dataCellStyle="Währung"/>
     <tableColumn id="11" name="einfaches mittel" dataDxfId="6" dataCellStyle="Währung"/>
     <tableColumn id="12" name="gewichtete Mittel" dataDxfId="5" dataCellStyle="Währung"/>
-    <tableColumn id="17" name="Spalte2" dataDxfId="0" dataCellStyle="Währung">
+    <tableColumn id="17" name="Spalte2" dataDxfId="4" dataCellStyle="Währung">
       <calculatedColumnFormula>Tabelle1[[#This Row],[stk]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="durchschnitt" dataDxfId="4" dataCellStyle="Währung"/>
-    <tableColumn id="14" name="Einstandspreis" dataDxfId="3" dataCellStyle="Währung"/>
-    <tableColumn id="15" name="Gewinn" dataDxfId="2" dataCellStyle="Währung"/>
-    <tableColumn id="16" name="KESt" dataDxfId="1" dataCellStyle="Währung"/>
+    <tableColumn id="13" name="durchschnitt" dataDxfId="3" dataCellStyle="Währung"/>
+    <tableColumn id="14" name="Einstandspreis" dataDxfId="2" dataCellStyle="Währung"/>
+    <tableColumn id="15" name="Gewinn" dataDxfId="1" dataCellStyle="Währung"/>
+    <tableColumn id="16" name="KESt" dataDxfId="0" dataCellStyle="Währung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -712,7 +712,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1651,10 +1651,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
-      <c r="M19" s="11">
-        <f>Tabelle1[[#This Row],[stk]]</f>
-        <v>0</v>
-      </c>
+      <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
@@ -1685,10 +1682,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-      <c r="M20" s="11">
-        <f>Tabelle1[[#This Row],[stk]]</f>
-        <v>5.7999999999999829E-2</v>
-      </c>
+      <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11">
@@ -1718,10 +1712,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
-      <c r="M21" s="11">
-        <f>Tabelle1[[#This Row],[stk]]</f>
-        <v>0</v>
-      </c>
+      <c r="M21" s="11"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
@@ -1742,10 +1733,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
-      <c r="M22" s="11">
-        <f>Tabelle1[[#This Row],[stk]]</f>
-        <v>0</v>
-      </c>
+      <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
